--- a/bom_manual.xlsx
+++ b/bom_manual.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seth\Documents\KiCad\Rocketboard-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C7E57-D9C7-4A3C-9E4B-5A5916BFE95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330DA346-2FE1-41CC-9E70-3A689C8F1D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38265" yWindow="2895" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
   <si>
     <t>Qty</t>
   </si>
@@ -390,9 +398,6 @@
     <t>Cannot find anywhere but AliExpress, will have to be hand soldered for the time being</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Nothing to be loaded</t>
   </si>
   <si>
@@ -433,6 +438,72 @@
   </si>
   <si>
     <t>Not carried by JLCPCB - mounting pins may not be long enough for 1.6mm board!</t>
+  </si>
+  <si>
+    <t>0603WAF200JT5E</t>
+  </si>
+  <si>
+    <t>C22950</t>
+  </si>
+  <si>
+    <t>Uniroyal Elec</t>
+  </si>
+  <si>
+    <t>0603WAF1002T5E</t>
+  </si>
+  <si>
+    <t>C25804</t>
+  </si>
+  <si>
+    <t>0603WAF5101T5E</t>
+  </si>
+  <si>
+    <t>C23186</t>
+  </si>
+  <si>
+    <t>0603WAF1501T5E</t>
+  </si>
+  <si>
+    <t>C22843</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>C21190</t>
+  </si>
+  <si>
+    <t>TS-1187A-C-C-B</t>
+  </si>
+  <si>
+    <t>C318889</t>
+  </si>
+  <si>
+    <t>XKB Enterprise</t>
+  </si>
+  <si>
+    <t>EC11E1534408</t>
+  </si>
+  <si>
+    <t>C278348</t>
+  </si>
+  <si>
+    <t>ALPS Electric</t>
+  </si>
+  <si>
+    <t>C8734</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
+  </si>
+  <si>
+    <t>Board Cost</t>
+  </si>
+  <si>
+    <t>JLCPCB Cost:</t>
+  </si>
+  <si>
+    <t>Other Cost:</t>
   </si>
 </sst>
 </file>
@@ -499,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -513,6 +584,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -794,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,13 +883,13 @@
     <col min="5" max="5" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="80.109375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="80.109375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,11 +920,14 @@
       <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -875,11 +952,19 @@
       <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="I2" s="1" t="str">
+        <f>IF(F2="JLCPCB ", "", "Yes")</f>
+        <v/>
+      </c>
       <c r="J2" s="5">
         <v>8.5000000000000006E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="5">
+        <f>J2*A2</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -904,14 +989,22 @@
       <c r="H3" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" ref="I3:I30" si="0">IF(F3="JLCPCB ", "", "Yes")</f>
+        <v/>
+      </c>
       <c r="J3" s="5">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K30" si="1">J3*A3</f>
+        <v>1.66E-2</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>23</v>
       </c>
@@ -936,11 +1029,19 @@
       <c r="H4" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J4" s="5">
         <v>6.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15639999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -965,14 +1066,22 @@
       <c r="H5" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J5" s="5">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -997,14 +1106,22 @@
       <c r="H6" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J6" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1029,11 +1146,19 @@
       <c r="H7" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J7" s="5">
         <v>0.15490000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15490000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1058,11 +1183,19 @@
       <c r="H8" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J8" s="5">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>19</v>
       </c>
@@ -1087,11 +1220,19 @@
       <c r="H9" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J9" s="5">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>16</v>
       </c>
@@ -1113,17 +1254,22 @@
       <c r="H10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>121</v>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
       </c>
       <c r="J10" s="5">
         <v>0.10489999999999999</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6783999999999999</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1136,14 +1282,19 @@
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1156,14 +1307,19 @@
       <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1176,14 +1332,19 @@
       <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1196,14 +1357,19 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1216,14 +1382,19 @@
       <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1237,28 +1408,33 @@
         <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>121</v>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
       </c>
       <c r="J16" s="5">
         <v>0.84499999999999997</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1271,8 +1447,31 @@
       <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="5">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1285,8 +1484,31 @@
       <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1299,8 +1521,31 @@
       <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="5">
+        <v>1.9E-3</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="1"/>
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1313,8 +1558,31 @@
       <c r="D20" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="5">
+        <v>1.8E-3</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1327,8 +1595,31 @@
       <c r="D21" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="5">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1341,8 +1632,31 @@
       <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="5">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1355,8 +1669,31 @@
       <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1.943333</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="1"/>
+        <v>1.943333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1369,8 +1706,31 @@
       <c r="D24" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1.943333</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="1"/>
+        <v>1.943333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1383,8 +1743,31 @@
       <c r="D25" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J25" s="5">
+        <v>1.4413</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1409,11 +1792,19 @@
       <c r="H26" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J26" s="5">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1433,16 +1824,24 @@
         <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>127</v>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J27" s="5">
         <v>9.1499999999999998E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
+        <v>9.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1456,22 +1855,30 @@
         <v>31</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>131</v>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
       </c>
       <c r="J28" s="5">
         <v>5.4961000000000003E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="5">
+        <f t="shared" si="1"/>
+        <v>5.4961000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1496,11 +1903,19 @@
       <c r="H29" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J29" s="5">
         <v>0.21870000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="5">
+        <f t="shared" si="1"/>
+        <v>0.21870000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1525,11 +1940,53 @@
       <c r="H30" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J30" s="5">
         <v>0.2336</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2336</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K33" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K34" s="5">
+        <f>SUMIF(I2:I30,"",K2:K30)</f>
+        <v>2.8732000000000002</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K36" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K37" s="5">
+        <f>SUMIF(I2:I30, "yes", K2:K30)</f>
+        <v>6.4650269999999992</v>
+      </c>
+    </row>
+    <row r="39" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K39" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K40" s="5">
+        <f>K34+K37</f>
+        <v>9.3382269999999998</v>
       </c>
     </row>
   </sheetData>

--- a/bom_manual.xlsx
+++ b/bom_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seth\Documents\KiCad\Rocketboard-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330DA346-2FE1-41CC-9E70-3A689C8F1D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D724D-EB74-4739-A29F-FDB5C4191FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38265" yWindow="2895" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
   <si>
     <t>Qty</t>
   </si>
@@ -504,6 +504,15 @@
   </si>
   <si>
     <t>Other Cost:</t>
+  </si>
+  <si>
+    <t>Unique parts (loaded) count:</t>
+  </si>
+  <si>
+    <t>Number of parts:</t>
+  </si>
+  <si>
+    <t>Number of loaded SMD parts:</t>
   </si>
 </sst>
 </file>
@@ -512,7 +521,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -580,11 +589,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -870,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,35 +1964,56 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="K33" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H34" s="1">
+        <f>COUNTBLANK(I2:I30)</f>
+        <v>19</v>
+      </c>
       <c r="K34" s="5">
         <f>SUMIF(I2:I30,"",K2:K30)</f>
         <v>2.8732000000000002</v>
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="K36" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H37" s="1">
+        <f>SUMIF(I2:I30, "", A2:A30)</f>
+        <v>65</v>
+      </c>
       <c r="K37" s="5">
         <f>SUMIF(I2:I30, "yes", K2:K30)</f>
         <v>6.4650269999999992</v>
       </c>
     </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H39" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="K39" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H40" s="1">
+        <f>SUM(A2:A30)</f>
+        <v>108</v>
+      </c>
       <c r="K40" s="5">
         <f>K34+K37</f>
         <v>9.3382269999999998</v>

--- a/bom_manual.xlsx
+++ b/bom_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seth\Documents\KiCad\Rocketboard-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D724D-EB74-4739-A29F-FDB5C4191FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174EE7AA-2D1D-483F-9313-815948FB9AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2910" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="172">
   <si>
     <t>Qty</t>
   </si>
@@ -513,6 +513,42 @@
   </si>
   <si>
     <t>Number of loaded SMD parts:</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>Graphic</t>
+  </si>
+  <si>
+    <t>seth-logo:saturn_v_simplified</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>Board Info</t>
+  </si>
+  <si>
+    <t>seth-logo:board-title</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>seth-logo:lunar_module</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>seth-logo:text</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>seth-logo:space_shuttle</t>
   </si>
 </sst>
 </file>
@@ -582,19 +618,25 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -877,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,8 +935,8 @@
     <col min="6" max="7" width="14.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="80.109375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="13.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="80.109375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -932,7 +974,7 @@
       <c r="K1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -965,10 +1007,10 @@
         <f>IF(F2="JLCPCB ", "", "Yes")</f>
         <v/>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <f>J2*A2</f>
         <v>1.7000000000000001E-2</v>
       </c>
@@ -999,23 +1041,23 @@
         <v>82</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I30" si="0">IF(F3="JLCPCB ", "", "Yes")</f>
+        <f t="shared" ref="I3:I35" si="0">IF(F3="JLCPCB ", "", "Yes")</f>
         <v/>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K30" si="1">J3*A3</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K35" si="1">J3*A3</f>
         <v>1.66E-2</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -1042,12 +1084,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="1"/>
-        <v>0.15639999999999998</v>
+      <c r="K4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18359999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1079,18 +1121,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1103,7 +1145,7 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1119,14 +1161,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1159,10 +1201,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>0.15490000000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
         <v>0.15490000000000001</v>
       </c>
@@ -1196,10 +1238,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>1.29E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>1.29E-2</v>
       </c>
@@ -1233,10 +1275,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>0.26600000000000001</v>
       </c>
@@ -1267,14 +1309,14 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>0.10489999999999999</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>1.6783999999999999</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1295,11 +1337,11 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1308,287 +1350,194 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="K12" s="5">
+        <v>162</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="K13" s="5">
+        <v>165</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="K14" s="5">
+        <v>167</v>
+      </c>
+      <c r="K14" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="K15" s="5">
+        <v>169</v>
+      </c>
+      <c r="K15" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="1"/>
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J17" s="5">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="1"/>
-        <v>3.2000000000000002E-3</v>
+        <v>Yes</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J18" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
+        <v>Yes</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J19" s="5">
-        <v>1.9E-3</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="1"/>
-        <v>3.8E-3</v>
+        <v>Yes</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="5">
-        <v>1.8E-3</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8E-3</v>
+        <v>Yes</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1596,147 +1545,150 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="5">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="1"/>
-        <v>2.0999999999999999E-3</v>
+        <v>Yes</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="5">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4799999999999998E-2</v>
+      <c r="J22" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1.943333</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="1"/>
-        <v>1.943333</v>
+        <v/>
+      </c>
+      <c r="J23" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1.943333</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="1"/>
-        <v>1.943333</v>
+        <v/>
+      </c>
+      <c r="J24" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1744,36 +1696,36 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="5">
-        <v>1.4413</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4413</v>
+      <c r="J25" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1781,36 +1733,36 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>79</v>
+        <v>145</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="5">
-        <v>0.124</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.124</v>
+      <c r="J26" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1818,73 +1770,73 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="5">
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" si="1"/>
-        <v>9.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="3">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>129</v>
+      <c r="G28" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J28" s="5">
-        <v>5.4961000000000003E-2</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="1"/>
-        <v>5.4961000000000003E-2</v>
+      <c r="J28" s="3">
+        <v>1.943333</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="1"/>
+        <v>1.943333</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1892,36 +1844,36 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J29" s="5">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="1"/>
-        <v>0.21870000000000001</v>
+        <v>Yes</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1.943333</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.943333</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1929,94 +1881,279 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="3">
+        <v>1.4413</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J31" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J32" s="3">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
+        <v>9.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5.4961000000000003E-2</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="1"/>
+        <v>5.4961000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J34" s="3">
+        <v>0.21870000000000001</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21870000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="1" t="str">
+      <c r="I35" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="5">
+      <c r="J35" s="3">
         <v>0.2336</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K35" s="3">
         <f t="shared" si="1"/>
         <v>0.2336</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L35" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H33" s="1" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H38" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K38" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H34" s="1">
-        <f>COUNTBLANK(I2:I30)</f>
-        <v>19</v>
-      </c>
-      <c r="K34" s="5">
-        <f>SUMIF(I2:I30,"",K2:K30)</f>
-        <v>2.8732000000000002</v>
-      </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H36" s="1" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H39" s="1">
+        <f>COUNTBLANK(I2:I35)</f>
+        <v>24</v>
+      </c>
+      <c r="K39" s="3">
+        <f>SUMIF(I2:I35,"",K2:K35)</f>
+        <v>2.9164000000000003</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K41" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H37" s="1">
-        <f>SUMIF(I2:I30, "", A2:A30)</f>
-        <v>65</v>
-      </c>
-      <c r="K37" s="5">
-        <f>SUMIF(I2:I30, "yes", K2:K30)</f>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H42" s="1">
+        <f>SUMIF(I2:I35, "", A2:A35)</f>
+        <v>82</v>
+      </c>
+      <c r="K42" s="3">
+        <f>SUMIF(I2:I35, "yes", K2:K35)</f>
         <v>6.4650269999999992</v>
       </c>
     </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H39" s="1" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K44" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H40" s="1">
-        <f>SUM(A2:A30)</f>
-        <v>108</v>
-      </c>
-      <c r="K40" s="5">
-        <f>K34+K37</f>
-        <v>9.3382269999999998</v>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H45" s="1">
+        <f>SUM(A2:A35)</f>
+        <v>125</v>
+      </c>
+      <c r="K45" s="3">
+        <f>K39+K42</f>
+        <v>9.3814269999999986</v>
       </c>
     </row>
   </sheetData>

--- a/bom_manual.xlsx
+++ b/bom_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seth\Documents\KiCad\Rocketboard-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174EE7AA-2D1D-483F-9313-815948FB9AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B743324-4C10-467B-A438-18D3B436E826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2910" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="178">
   <si>
     <t>Qty</t>
   </si>
@@ -161,9 +161,6 @@
     <t>USB_C_Plug_USB2.0</t>
   </si>
   <si>
-    <t>seth-connectors:USB_C_U262-161N-4BVC11</t>
-  </si>
-  <si>
     <t>R1, R2</t>
   </si>
   <si>
@@ -549,6 +546,27 @@
   </si>
   <si>
     <t>seth-logo:space_shuttle</t>
+  </si>
+  <si>
+    <t>Connector_USB:USB_C_Receptacle_Palconn_UTC16-G</t>
+  </si>
+  <si>
+    <t>Alternates:</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>C347222</t>
+  </si>
+  <si>
+    <t>UMW(Youtai Semiconductor Co., Ltd.)</t>
+  </si>
+  <si>
+    <t>X1A000141000100</t>
+  </si>
+  <si>
+    <t>C94674</t>
   </si>
 </sst>
 </file>
@@ -594,12 +612,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -615,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -629,13 +659,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -919,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,348 +982,353 @@
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="5" t="str">
         <f>IF(F2="JLCPCB ", "", "Yes")</f>
         <v/>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <f>J2*A2</f>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="1" t="str">
+      <c r="H3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="5" t="str">
         <f t="shared" ref="I3:I35" si="0">IF(F3="JLCPCB ", "", "Yes")</f>
         <v/>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K35" si="1">J3*A3</f>
         <v>1.66E-2</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.18359999999999999</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="1"/>
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="1" t="str">
+      <c r="E6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="3">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="K4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.18359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="J6" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7">
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.15490000000000001</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="1" t="str">
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="3">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="1"/>
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="1" t="str">
+      <c r="J8" s="7">
+        <v>1.29E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="1"/>
+        <v>1.29E-2</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="3">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="1"/>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J7" s="3">
-        <v>0.15490000000000001</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.15490000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J8" s="3">
-        <v>1.29E-2</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="1"/>
-        <v>1.29E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J9" s="3">
+      <c r="J9" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="7">
         <f t="shared" si="1"/>
         <v>0.26600000000000001</v>
       </c>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1297,13 +1344,13 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1317,7 +1364,7 @@
         <v>1.6783999999999999</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1342,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1350,13 +1397,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
@@ -1369,13 +1416,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
@@ -1388,13 +1435,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
@@ -1407,13 +1454,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="1"/>
@@ -1426,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="1"/>
@@ -1462,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1487,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1512,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1537,576 +1584,589 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="5">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7">
+        <v>1.9E-3</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8E-3</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J25" s="7">
+        <v>1.8E-3</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" s="7">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J27" s="7">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="1"/>
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1.943333</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="1"/>
+        <v>1.943333</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1.943333</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="1"/>
+        <v>1.943333</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="7">
+        <v>1.4413</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4413</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J31" s="7">
+        <v>0.124</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.124</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="H32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J32" s="7">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="1"/>
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="1" t="str">
+      <c r="H33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="J21" s="3">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="1"/>
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="1" t="str">
+      <c r="J33" s="7">
+        <v>5.4961000000000003E-2</v>
+      </c>
+      <c r="K33" s="7">
+        <f t="shared" si="1"/>
+        <v>5.4961000000000003E-2</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="3">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="1"/>
-        <v>3.2000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="1" t="str">
+      <c r="J34" s="7">
+        <v>0.21870000000000001</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.21870000000000001</v>
+      </c>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J24" s="3">
-        <v>1.9E-3</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" si="1"/>
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J25" s="3">
-        <v>1.8E-3</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J26" s="3">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="K26" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J27" s="3">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K27" s="3">
-        <f t="shared" si="1"/>
-        <v>3.4799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1.943333</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" si="1"/>
-        <v>1.943333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1.943333</v>
-      </c>
-      <c r="K29" s="3">
-        <f t="shared" si="1"/>
-        <v>1.943333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J30" s="3">
-        <v>1.4413</v>
-      </c>
-      <c r="K30" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J31" s="3">
-        <v>0.124</v>
-      </c>
-      <c r="K31" s="3">
-        <f t="shared" si="1"/>
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J32" s="3">
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="K32" s="3">
-        <f t="shared" si="1"/>
-        <v>9.1499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5.4961000000000003E-2</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" si="1"/>
-        <v>5.4961000000000003E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J34" s="3">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" si="1"/>
-        <v>0.21870000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J35" s="3">
+      <c r="J35" s="7">
         <v>0.2336</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="7">
         <f t="shared" si="1"/>
         <v>0.2336</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>99</v>
+      <c r="L35" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H38" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2122,10 +2182,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H41" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2140,10 +2200,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H44" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2154,6 +2214,87 @@
       <c r="K45" s="3">
         <f>K39+K42</f>
         <v>9.3814269999999986</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>1</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.124</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0.124</v>
+      </c>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>1</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" ref="I48" si="2">IF(F48="JLCPCB ", "", "Yes")</f>
+        <v/>
+      </c>
+      <c r="J48" s="7">
+        <v>0.2336</v>
+      </c>
+      <c r="K48" s="7">
+        <f t="shared" ref="K48" si="3">J48*A48</f>
+        <v>0.2336</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/bom_manual.xlsx
+++ b/bom_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seth\Documents\KiCad\Rocketboard-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B743324-4C10-467B-A438-18D3B436E826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFECCDF-02FA-4BB3-A4A9-C6D17E31DEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="192">
   <si>
     <t>Qty</t>
   </si>
@@ -71,9 +71,6 @@
     <t>C3, C12</t>
   </si>
   <si>
-    <t>C4, C5, C6, C7, C8, C9, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30</t>
-  </si>
-  <si>
     <t>0.1u</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t>R3, R8, R9</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -567,6 +561,54 @@
   </si>
   <si>
     <t>C94674</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>C4, C5, C6, C7, C8, C9, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C32, C33, C34, C35</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>seth-logo:iss</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>seth-logo:spacewalk</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>seth-logo:hubble_space_telescope</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>BSS138</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t>R3, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19</t>
+  </si>
+  <si>
+    <t>C489349</t>
+  </si>
+  <si>
+    <t>KEXIN</t>
+  </si>
+  <si>
+    <t>CL10A106MA8NRNC</t>
+  </si>
+  <si>
+    <t>C96446</t>
   </si>
 </sst>
 </file>
@@ -961,24 +1003,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="80.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1002,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
@@ -1011,10 +1055,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1028,22 +1072,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>IF(F2="JLCPCB ", "", "Yes")</f>
@@ -1066,36 +1110,36 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I3" s="5" t="str">
-        <f t="shared" ref="I3:I35" si="0">IF(F3="JLCPCB ", "", "Yes")</f>
+        <f t="shared" ref="I3:I40" si="0">IF(F3="JLCPCB ", "", "Yes")</f>
         <v/>
       </c>
       <c r="J3" s="7">
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K35" si="1">J3*A3</f>
+        <f t="shared" ref="K3:K40" si="1">J3*A3</f>
         <v>1.66E-2</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1103,25 +1147,25 @@
         <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1141,25 +1185,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1173,7 +1217,7 @@
         <v>7.1599999999999997E-2</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -1181,25 +1225,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1213,7 +1257,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1221,25 +1265,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1259,25 +1303,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1294,135 +1338,154 @@
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3.3354000000000002E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3354000000000002E-2</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="5" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="7">
+      <c r="J10" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K10" s="7">
         <f t="shared" si="1"/>
         <v>0.26600000000000001</v>
       </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.10489999999999999</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6783999999999999</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
+      <c r="J11" s="3">
+        <v>0.10489999999999999</v>
+      </c>
       <c r="K11" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.6783999999999999</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>161</v>
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
@@ -1435,13 +1498,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
@@ -1454,13 +1517,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="1"/>
@@ -1473,13 +1536,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="1"/>
@@ -1492,442 +1555,362 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v>168</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v>179</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v>181</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="1" t="str">
+      <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K24" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="K21" s="7">
-        <f t="shared" si="1"/>
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="5">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="7">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="1"/>
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J24" s="7">
-        <v>1.9E-3</v>
-      </c>
-      <c r="K24" s="7">
-        <f t="shared" si="1"/>
-        <v>3.8E-3</v>
-      </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="J25" s="7">
-        <v>1.8E-3</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="1"/>
-        <v>1.8E-3</v>
-      </c>
-      <c r="L25" s="6"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>189</v>
       </c>
       <c r="J26" s="7">
-        <v>2.0999999999999999E-3</v>
+        <v>1.7343000000000001E-2</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="1"/>
-        <v>2.0999999999999999E-3</v>
+        <v>1.7343000000000001E-2</v>
       </c>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="C27" s="5">
+        <v>20</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="I27" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J27" s="7">
-        <v>3.4799999999999998E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="1"/>
-        <v>3.4799999999999998E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="I28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="J28" s="7">
-        <v>1.943333</v>
+        <v>2E-3</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="1"/>
-        <v>1.943333</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="I29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="J29" s="7">
-        <v>1.943333</v>
+        <v>1.9E-3</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="1"/>
-        <v>1.943333</v>
+        <v>3.8E-3</v>
       </c>
       <c r="L29" s="6"/>
     </row>
@@ -1936,36 +1919,36 @@
         <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I30" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J30" s="7">
-        <v>1.4413</v>
+        <v>1.8E-3</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="1"/>
-        <v>1.4413</v>
+        <v>1.8E-3</v>
       </c>
       <c r="L30" s="6"/>
     </row>
@@ -1974,36 +1957,36 @@
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>78</v>
+        <v>142</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="I31" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J31" s="7">
-        <v>0.124</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="1"/>
-        <v>0.124</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="L31" s="6"/>
     </row>
@@ -2012,36 +1995,36 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I32" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J32" s="7">
-        <v>9.1499999999999998E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="1"/>
-        <v>9.1499999999999998E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="L32" s="6"/>
     </row>
@@ -2050,36 +2033,36 @@
         <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="I33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="J33" s="7">
-        <v>5.4961000000000003E-2</v>
+        <v>1.943333</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="1"/>
-        <v>5.4961000000000003E-2</v>
+        <v>1.943333</v>
       </c>
       <c r="L33" s="6"/>
     </row>
@@ -2088,36 +2071,36 @@
         <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="I34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="J34" s="7">
-        <v>0.21870000000000001</v>
+        <v>1.943333</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="1"/>
-        <v>0.21870000000000001</v>
+        <v>1.943333</v>
       </c>
       <c r="L34" s="6"/>
     </row>
@@ -2126,175 +2109,365 @@
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J35" s="7">
+        <v>1.4413</v>
+      </c>
+      <c r="K35" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4413</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J36" s="7">
+        <v>0.124</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.124</v>
+      </c>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J37" s="7">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="1"/>
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="J38" s="7">
+        <v>5.4961000000000003E-2</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="1"/>
+        <v>5.4961000000000003E-2</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J39" s="7">
+        <v>0.21870000000000001</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.21870000000000001</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="E40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I35" s="5" t="str">
+      <c r="H40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J35" s="7">
+      <c r="J40" s="7">
         <v>0.2336</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K40" s="7">
         <f t="shared" si="1"/>
         <v>0.2336</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H38" s="1" t="s">
+      <c r="L40" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H44" s="1">
+        <f>COUNTBLANK(I2:I40)</f>
+        <v>28</v>
+      </c>
+      <c r="K44" s="3">
+        <f>SUMIF(I2:I40,"",K2:K40)</f>
+        <v>2.9377430000000002</v>
+      </c>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H39" s="1">
-        <f>COUNTBLANK(I2:I35)</f>
-        <v>24</v>
-      </c>
-      <c r="K39" s="3">
-        <f>SUMIF(I2:I35,"",K2:K35)</f>
-        <v>2.9164000000000003</v>
-      </c>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K41" s="3" t="s">
+      <c r="K46" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H47" s="1">
+        <f>SUMIF(I2:I40, "", A2:A40)</f>
+        <v>88</v>
+      </c>
+      <c r="K47" s="3">
+        <f>SUMIF(I2:I40, "yes", K2:K40)</f>
+        <v>6.4983809999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H49" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H42" s="1">
-        <f>SUMIF(I2:I35, "", A2:A35)</f>
-        <v>82</v>
-      </c>
-      <c r="K42" s="3">
-        <f>SUMIF(I2:I35, "yes", K2:K35)</f>
-        <v>6.4650269999999992</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H45" s="1">
-        <f>SUM(A2:A35)</f>
-        <v>125</v>
-      </c>
-      <c r="K45" s="3">
-        <f>K39+K42</f>
-        <v>9.3814269999999986</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="11" t="s">
+      <c r="K49" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H50" s="1">
+        <f>SUM(A2:A40)</f>
+        <v>132</v>
+      </c>
+      <c r="K50" s="3">
+        <f>K44+K47</f>
+        <v>9.4361239999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>1</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>1</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="H52" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0.124</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.124</v>
+      </c>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>1</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="F53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J47" s="7">
-        <v>0.124</v>
-      </c>
-      <c r="K47" s="7">
-        <v>0.124</v>
-      </c>
-      <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>1</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="5" t="str">
-        <f t="shared" ref="I48" si="2">IF(F48="JLCPCB ", "", "Yes")</f>
+      <c r="H53" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" ref="I53" si="2">IF(F53="JLCPCB ", "", "Yes")</f>
         <v/>
       </c>
-      <c r="J48" s="7">
+      <c r="J53" s="7">
         <v>0.2336</v>
       </c>
-      <c r="K48" s="7">
-        <f t="shared" ref="K48" si="3">J48*A48</f>
+      <c r="K53" s="7">
+        <f t="shared" ref="K53" si="3">J53*A53</f>
         <v>0.2336</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>98</v>
+      <c r="L53" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/bom_manual.xlsx
+++ b/bom_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seth\Documents\KiCad\Rocketboard-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFECCDF-02FA-4BB3-A4A9-C6D17E31DEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEBDAA8-495D-44E0-A2D3-3F34D6552ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/bom_manual.xlsx
+++ b/bom_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seth\Documents\KiCad\Rocketboard-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEBDAA8-495D-44E0-A2D3-3F34D6552ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B5E15A-8390-416C-A5E6-2E3A599EA17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="195">
   <si>
     <t>Qty</t>
   </si>
@@ -596,9 +596,6 @@
     <t>Package_TO_SOT_SMD:SOT-23</t>
   </si>
   <si>
-    <t>R3, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19</t>
-  </si>
-  <si>
     <t>C489349</t>
   </si>
   <si>
@@ -609,6 +606,18 @@
   </si>
   <si>
     <t>C96446</t>
+  </si>
+  <si>
+    <t>R3, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21</t>
+  </si>
+  <si>
+    <t>FN18F104Z500PSG</t>
+  </si>
+  <si>
+    <t>C497032</t>
+  </si>
+  <si>
+    <t>PSA(Prosperity Dielectrics)</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,13 +1359,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>125</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>79</v>
@@ -1786,10 +1795,10 @@
         <v>125</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="J26" s="7">
         <v>1.7343000000000001E-2</v>
@@ -1840,10 +1849,10 @@
     </row>
     <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>43</v>
@@ -1872,7 +1881,7 @@
       </c>
       <c r="K28" s="7">
         <f t="shared" si="1"/>
-        <v>2.6000000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="L28" s="6"/>
     </row>
@@ -2349,7 +2358,7 @@
       </c>
       <c r="K44" s="3">
         <f>SUMIF(I2:I40,"",K2:K40)</f>
-        <v>2.9377430000000002</v>
+        <v>2.9417430000000002</v>
       </c>
       <c r="L44" s="4"/>
     </row>
@@ -2364,7 +2373,7 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H47" s="1">
         <f>SUMIF(I2:I40, "", A2:A40)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K47" s="3">
         <f>SUMIF(I2:I40, "yes", K2:K40)</f>
@@ -2382,11 +2391,11 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H50" s="1">
         <f>SUM(A2:A40)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K50" s="3">
         <f>K44+K47</f>
-        <v>9.4361239999999995</v>
+        <v>9.4401239999999991</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2456,19 +2465,57 @@
         <v>83</v>
       </c>
       <c r="I53" s="5" t="str">
-        <f t="shared" ref="I53" si="2">IF(F53="JLCPCB ", "", "Yes")</f>
+        <f t="shared" ref="I53:I54" si="2">IF(F53="JLCPCB ", "", "Yes")</f>
         <v/>
       </c>
       <c r="J53" s="7">
         <v>0.2336</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" ref="K53" si="3">J53*A53</f>
+        <f t="shared" ref="K53:K54" si="3">J53*A53</f>
         <v>0.2336</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>96</v>
       </c>
+    </row>
+    <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>27</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J54" s="7">
+        <v>3.0119999999999999E-3</v>
+      </c>
+      <c r="K54" s="7">
+        <f t="shared" si="3"/>
+        <v>8.1323999999999994E-2</v>
+      </c>
+      <c r="L54" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bom_manual.xlsx
+++ b/bom_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seth\Documents\KiCad\Rocketboard-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B5E15A-8390-416C-A5E6-2E3A599EA17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387CF29B-986C-4868-9EFC-3FAB44778371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1014,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
